--- a/tests/expected_results/result_test_write_results_mintos_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_mintos_missing_month.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -3406,7 +3403,7 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3694,8 +3691,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3789,11 +3786,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
+      <c r="C3" s="2" t="n">
+        <v>130.29</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>64.22</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>-8382.17</v>

--- a/tests/expected_results/result_test_write_results_mintos_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_mintos_missing_month.xlsx
@@ -1,67 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total results" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Daily results" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly results" sheetId="2" r:id="rId2"/>
+    <sheet name="Total results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Start balance</t>
+  </si>
+  <si>
+    <t>End balance</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Redemption payments</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Interest payments</t>
+  </si>
+  <si>
+    <t>Buyback interest payments</t>
+  </si>
+  <si>
+    <t>Late fee payments</t>
+  </si>
+  <si>
+    <t>Total income</t>
+  </si>
+  <si>
+    <t>Mintos</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="DD/MM/YY" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,93 +125,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -444,3696 +442,3334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="N5" activeCellId="0" pane="topLeft" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="12.71"/>
-    <col customWidth="1" max="2" min="2" style="6" width="9.130000000000001"/>
-    <col customWidth="1" max="3" min="3" style="7" width="12.71"/>
-    <col customWidth="1" max="4" min="4" style="8" width="16.29"/>
-    <col customWidth="1" max="5" min="5" style="8" width="10.29"/>
-    <col customWidth="1" max="6" min="6" style="8" width="16.29"/>
-    <col customWidth="1" max="7" min="7" style="8" width="21.14"/>
-    <col customWidth="1" max="8" min="8" style="8" width="11.57"/>
-    <col customWidth="1" max="9" min="9" style="8" width="16.29"/>
-    <col customWidth="1" max="10" min="10" style="8" width="34.29"/>
-    <col customWidth="1" max="12" min="11" style="8" width="18.71"/>
-    <col customWidth="1" max="1021" min="13" style="6" width="8.67"/>
-    <col customWidth="1" max="1025" min="1022" style="6" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Plattform</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Währung</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>Startguthaben</t>
-        </is>
-      </c>
-      <c r="E1" s="10" t="inlineStr">
-        <is>
-          <t>Endsaldo</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Investitionen</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Tilgungszahlungen</t>
-        </is>
-      </c>
-      <c r="H1" s="10" t="inlineStr">
-        <is>
-          <t>Rückkäufe</t>
-        </is>
-      </c>
-      <c r="I1" s="10" t="inlineStr">
-        <is>
-          <t>Zinszahlungen</t>
-        </is>
-      </c>
-      <c r="J1" s="10" t="inlineStr">
-        <is>
-          <t>Zinszahlungen aus Rückkäufen</t>
-        </is>
-      </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>Verzugsgebühren</t>
-        </is>
-      </c>
-      <c r="L1" s="10" t="inlineStr">
-        <is>
-          <t>Gesamteinnahmen</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="9">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Mintos</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
         <v>43344</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2">
         <v>130.29</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2">
         <v>105.54</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2">
         <v>-47.26</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2">
         <v>1.24</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2">
         <v>0.72</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2">
         <v>0.55</v>
       </c>
-      <c r="K2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8" t="n">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>1.27</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="9">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="12" t="n">
+    <row r="3" spans="1:12">
+      <c r="C3" s="2">
         <v>43345</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3">
         <v>105.54</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3">
         <v>107.34</v>
       </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1.18</v>
       </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="n">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.63</v>
       </c>
-      <c r="J3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="n">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.63</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="9">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="12" t="n">
+    <row r="4" spans="1:12">
+      <c r="C4" s="2">
         <v>43346</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4">
         <v>107.34</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4">
         <v>111.86</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="n">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2.67</v>
       </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1.83</v>
       </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="n">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0.01</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4">
         <v>1.84</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="9">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="12" t="n">
+    <row r="5" spans="1:12">
+      <c r="C5" s="2">
         <v>43347</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5">
         <v>111.86</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5">
         <v>106.08</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5">
         <v>-70.45999999999999</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5">
         <v>4.2</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5">
         <v>57.96</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5">
         <v>1.49</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5">
         <v>1.01</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5">
         <v>0.02</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5">
         <v>2.52</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="9">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="12" t="n">
+    <row r="6" spans="1:12">
+      <c r="C6" s="2">
         <v>43348</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6">
         <v>106.08</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6">
         <v>125.94</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6">
         <v>-15.32</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6">
         <v>15.97</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6">
         <v>9.220000000000001</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6">
         <v>9.94</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6">
         <v>0.02</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6">
         <v>0.03</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6">
         <v>9.98</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="9">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="12" t="n">
+    <row r="7" spans="1:12">
+      <c r="C7" s="2">
         <v>43349</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7">
         <v>125.94</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7">
         <v>138.34</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7">
         <v>-76.18000000000001</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7">
         <v>19.41</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7">
         <v>49.41</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7">
         <v>18.93</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7">
         <v>0.83</v>
       </c>
-      <c r="K7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="n">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>19.77</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="9">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="12" t="n">
+    <row r="8" spans="1:12">
+      <c r="C8" s="2">
         <v>43350</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8">
         <v>138.34</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8">
         <v>114.05</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8">
         <v>-114.06</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8">
         <v>2.85</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8">
         <v>84.90000000000001</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8">
         <v>1.41</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8">
         <v>0.61</v>
       </c>
-      <c r="K8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="n">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2.02</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="12" t="n">
+    <row r="9" spans="1:12">
+      <c r="C9" s="2">
         <v>43351</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9">
         <v>114.05</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9">
         <v>103.5</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9">
         <v>-144.04</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9">
         <v>0.58</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9">
         <v>131.95</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9">
         <v>0.43</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9">
         <v>0.52</v>
       </c>
-      <c r="K9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.96</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="9">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="12" t="n">
+    <row r="10" spans="1:12">
+      <c r="C10" s="2">
         <v>43352</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10">
         <v>103.5</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10">
         <v>102.94</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10">
         <v>-56.05</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10">
         <v>2.23</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10">
         <v>52.2</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10">
         <v>0.71</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10">
         <v>0.35</v>
       </c>
-      <c r="K10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="n">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>1.06</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="9">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="12" t="n">
+    <row r="11" spans="1:12">
+      <c r="C11" s="2">
         <v>43353</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11">
         <v>102.94</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11">
         <v>114.36</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11">
         <v>-13.28</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11">
         <v>10.1</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11">
         <v>4.23</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11">
         <v>0.35</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11">
         <v>0.03</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11">
         <v>4.6</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="9">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="12" t="n">
+    <row r="12" spans="1:12">
+      <c r="C12" s="2">
         <v>43354</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12">
         <v>114.36</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12">
         <v>124.96</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12">
         <v>-30.49</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12">
         <v>13.53</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12">
         <v>22.28</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12">
         <v>5.07</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12">
         <v>0.18</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12">
         <v>0.03</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12">
         <v>5.28</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="9">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="12" t="n">
+    <row r="13" spans="1:12">
+      <c r="C13" s="2">
         <v>43355</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13">
         <v>124.96</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13">
         <v>113.58</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13">
         <v>-93.54000000000001</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13">
         <v>10.22</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13">
         <v>67.54000000000001</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13">
         <v>3.36</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13">
         <v>1.05</v>
       </c>
-      <c r="K13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>4.41</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="9">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="12" t="n">
+    <row r="14" spans="1:12">
+      <c r="C14" s="2">
         <v>43356</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14">
         <v>113.58</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14">
         <v>113.37</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14">
         <v>-37.45</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14">
         <v>5.18</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14">
         <v>29.47</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14">
         <v>2.33</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14">
         <v>0.25</v>
       </c>
-      <c r="K14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>2.58</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="9">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="12" t="n">
+    <row r="15" spans="1:12">
+      <c r="C15" s="2">
         <v>43357</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15">
         <v>113.37</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15">
         <v>115.95</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15">
         <v>-70.01000000000001</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15">
         <v>5.17</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15">
         <v>64.29000000000001</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15">
         <v>2.18</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15">
         <v>0.9</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15">
         <v>0.04</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15">
         <v>3.13</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="9">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="12" t="n">
+    <row r="16" spans="1:12">
+      <c r="C16" s="2">
         <v>43358</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16">
         <v>115.95</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16">
         <v>113.25</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16">
         <v>-105.52</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16">
         <v>6.79</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16">
         <v>92.56</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16">
         <v>2.04</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16">
         <v>1.44</v>
       </c>
-      <c r="K16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="n">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>3.48</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="9">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="12" t="n">
+    <row r="17" spans="3:12">
+      <c r="C17" s="2">
         <v>43359</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17">
         <v>113.25</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17">
         <v>110.16</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17">
         <v>-31.89</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17">
         <v>1.05</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17">
         <v>26.74</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17">
         <v>0.77</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17">
         <v>0.24</v>
       </c>
-      <c r="K17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8" t="n">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1.01</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="9">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="12" t="n">
+    <row r="18" spans="3:12">
+      <c r="C18" s="2">
         <v>43360</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18">
         <v>110.16</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18">
         <v>120.81</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18">
         <v>-25.25</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18">
         <v>14.86</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18">
         <v>5.78</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18">
         <v>0.24</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18">
         <v>0.02</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18">
         <v>6.05</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="9">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="12" t="n">
+    <row r="19" spans="3:12">
+      <c r="C19" s="2">
         <v>43361</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19">
         <v>120.81</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19">
         <v>191.12</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19">
         <v>-11.04</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19">
         <v>10.26</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19">
         <v>65.73999999999999</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19">
         <v>4.18</v>
       </c>
-      <c r="J19" s="8" t="n">
+      <c r="J19">
         <v>1.17</v>
       </c>
-      <c r="K19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="n">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>5.35</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="9">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="12" t="n">
+    <row r="20" spans="3:12">
+      <c r="C20" s="2">
         <v>43362</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20">
         <v>191.12</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20">
         <v>309.36</v>
       </c>
-      <c r="F20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="n">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>4.72</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20">
         <v>108.26</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20">
         <v>3.21</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20">
         <v>2.02</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20">
         <v>0.04</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20">
         <v>5.27</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="9">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="12" t="n">
+    <row r="21" spans="3:12">
+      <c r="C21" s="2">
         <v>43363</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21">
         <v>309.36</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21">
         <v>400.22</v>
       </c>
-      <c r="F21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="n">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>8.029999999999999</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21">
         <v>77.59999999999999</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21">
         <v>3.84</v>
       </c>
-      <c r="J21" s="8" t="n">
+      <c r="J21">
         <v>1.38</v>
       </c>
-      <c r="K21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="n">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>5.23</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="9">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="12" t="n">
+    <row r="22" spans="3:12">
+      <c r="C22" s="2">
         <v>43364</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22">
         <v>400.22</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22">
         <v>446.04</v>
       </c>
-      <c r="F22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="n">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>3.98</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22">
         <v>39.09</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22">
         <v>2.18</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22">
         <v>0.51</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22">
         <v>0.05</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22">
         <v>2.74</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="9">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="12" t="n">
+    <row r="23" spans="3:12">
+      <c r="C23" s="2">
         <v>43365</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23">
         <v>446.04</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23">
         <v>469.98</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23">
         <v>-20</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23">
         <v>1.5</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23">
         <v>41.03</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23">
         <v>1.04</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23">
         <v>0.37</v>
       </c>
-      <c r="K23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8" t="n">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>1.42</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="9">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="12" t="n">
+    <row r="24" spans="3:12">
+      <c r="C24" s="2">
         <v>43366</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24">
         <v>469.98</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24">
         <v>105.51</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24">
         <v>-376.07</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24">
         <v>3.07</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24">
         <v>7.17</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24">
         <v>1.36</v>
       </c>
-      <c r="J24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8" t="n">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>1.36</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="9">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="12" t="n">
+    <row r="25" spans="3:12">
+      <c r="C25" s="2">
         <v>43367</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25">
         <v>105.51</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25">
         <v>160.73</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25">
         <v>-11.49</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25">
         <v>4.45</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25">
         <v>59.58</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25">
         <v>2.32</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25">
         <v>0.35</v>
       </c>
-      <c r="K25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8" t="n">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>2.68</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="9">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="12" t="n">
+    <row r="26" spans="3:12">
+      <c r="C26" s="2">
         <v>43368</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26">
         <v>160.73</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26">
         <v>219.12</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26">
         <v>-20</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26">
         <v>5.16</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26">
         <v>69.77</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26">
         <v>3.22</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26">
         <v>0.22</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26">
         <v>0.02</v>
       </c>
-      <c r="L26" s="8" t="n">
+      <c r="L26">
         <v>3.46</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="9">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="12" t="n">
+    <row r="27" spans="3:12">
+      <c r="C27" s="2">
         <v>43369</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27">
         <v>219.12</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27">
         <v>360.31</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27">
         <v>-20</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27">
         <v>5.09</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27">
         <v>153.6</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27">
         <v>1.32</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27">
         <v>1.18</v>
       </c>
-      <c r="K27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8" t="n">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>2.5</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="9">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="12" t="n">
+    <row r="28" spans="3:12">
+      <c r="C28" s="2">
         <v>43370</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28">
         <v>360.31</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28">
         <v>388.94</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28">
         <v>-19.86</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28">
         <v>7.31</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28">
         <v>29.01</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28">
         <v>11.75</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28">
         <v>0.41</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28">
         <v>0.01</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28">
         <v>12.17</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="9">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="12" t="n">
+    <row r="29" spans="3:12">
+      <c r="C29" s="2">
         <v>43371</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29">
         <v>388.94</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29">
         <v>119.84</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29">
         <v>-318.62</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29">
         <v>12.92</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29">
         <v>29.23</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29">
         <v>6.91</v>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29">
         <v>0.46</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29">
         <v>0.01</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L29">
         <v>7.38</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="9">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="12" t="n">
+    <row r="30" spans="3:12">
+      <c r="C30" s="2">
         <v>43372</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30">
         <v>119.84</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30">
         <v>124.37</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30">
         <v>-51.58</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30">
         <v>15.17</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30">
         <v>39.31</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30">
         <v>1.47</v>
       </c>
-      <c r="J30" s="8" t="n">
+      <c r="J30">
         <v>0.16</v>
       </c>
-      <c r="K30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8" t="n">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>1.63</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="9">
-      <c r="A31" s="13" t="n"/>
-      <c r="B31" s="13" t="n"/>
-      <c r="C31" s="12" t="n">
+    <row r="31" spans="3:12">
+      <c r="C31" s="2">
         <v>43373</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31">
         <v>124.37</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31">
         <v>110.5</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31">
         <v>-306.24</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31">
         <v>4.37</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31">
         <v>277.53</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31">
         <v>4.44</v>
       </c>
-      <c r="J31" s="8" t="n">
+      <c r="J31">
         <v>6.03</v>
       </c>
-      <c r="K31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8" t="n">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>10.47</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="9">
-      <c r="A32" s="13" t="n"/>
-      <c r="B32" s="13" t="n"/>
-      <c r="C32" s="12" t="n">
+    <row r="32" spans="3:12">
+      <c r="C32" s="2">
         <v>43405</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32">
         <v>110.5</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32">
         <v>44.07</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32">
         <v>-260</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32">
         <v>9.539999999999999</v>
       </c>
-      <c r="H32" s="8" t="n">
+      <c r="H32">
         <v>173.24</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32">
         <v>9.5</v>
       </c>
-      <c r="J32" s="8" t="n">
+      <c r="J32">
         <v>1.27</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32">
         <v>0.02</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32">
         <v>10.79</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="9">
-      <c r="A33" s="13" t="n"/>
-      <c r="B33" s="13" t="n"/>
-      <c r="C33" s="12" t="n">
+    <row r="33" spans="3:12">
+      <c r="C33" s="2">
         <v>43406</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33">
         <v>44.07</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33">
         <v>32.91</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33">
         <v>-297.98</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33">
         <v>5.37</v>
       </c>
-      <c r="H33" s="8" t="n">
+      <c r="H33">
         <v>278.08</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33">
         <v>1.85</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33">
         <v>1.5</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33">
         <v>0.02</v>
       </c>
-      <c r="L33" s="8" t="n">
+      <c r="L33">
         <v>3.36</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="9">
-      <c r="A34" s="13" t="n"/>
-      <c r="B34" s="13" t="n"/>
-      <c r="C34" s="12" t="n">
+    <row r="34" spans="3:12">
+      <c r="C34" s="2">
         <v>43407</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34">
         <v>32.91</v>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="E34">
         <v>27.28</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34">
         <v>-33.22</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34">
         <v>0.71</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34">
         <v>26.5</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34">
         <v>0.18</v>
       </c>
-      <c r="J34" s="8" t="n">
+      <c r="J34">
         <v>0.15</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34">
         <v>0.03</v>
       </c>
-      <c r="L34" s="8" t="n">
+      <c r="L34">
         <v>0.37</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="9">
-      <c r="A35" s="13" t="n"/>
-      <c r="B35" s="13" t="n"/>
-      <c r="C35" s="12" t="n">
+    <row r="35" spans="3:12">
+      <c r="C35" s="2">
         <v>43408</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35">
         <v>27.28</v>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="E35">
         <v>21.23</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35">
         <v>-56.31</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35">
         <v>1.26</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35">
         <v>47.68</v>
       </c>
-      <c r="I35" s="8" t="n">
+      <c r="I35">
         <v>0.58</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35">
         <v>0.75</v>
       </c>
-      <c r="K35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8" t="n">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>1.33</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="9">
-      <c r="A36" s="13" t="n"/>
-      <c r="B36" s="13" t="n"/>
-      <c r="C36" s="12" t="n">
+    <row r="36" spans="3:12">
+      <c r="C36" s="2">
         <v>43409</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36">
         <v>21.23</v>
       </c>
-      <c r="E36" s="8" t="n">
+      <c r="E36">
         <v>27.47</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36">
         <v>-20</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36">
         <v>4.12</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36">
         <v>20</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36">
         <v>1.91</v>
       </c>
-      <c r="J36" s="8" t="n">
+      <c r="J36">
         <v>0.21</v>
       </c>
-      <c r="K36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8" t="n">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>2.12</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="9">
-      <c r="A37" s="13" t="n"/>
-      <c r="B37" s="13" t="n"/>
-      <c r="C37" s="12" t="n">
+    <row r="37" spans="3:12">
+      <c r="C37" s="2">
         <v>43410</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37">
         <v>27.47</v>
       </c>
-      <c r="E37" s="8" t="n">
+      <c r="E37">
         <v>22.61</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37">
         <v>-163.25</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37">
         <v>2.16</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37">
         <v>153.9</v>
       </c>
-      <c r="I37" s="8" t="n">
+      <c r="I37">
         <v>1.02</v>
       </c>
-      <c r="J37" s="8" t="n">
+      <c r="J37">
         <v>1.27</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37">
         <v>0.04</v>
       </c>
-      <c r="L37" s="8" t="n">
+      <c r="L37">
         <v>2.32</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="9">
-      <c r="A38" s="13" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="12" t="n">
+    <row r="38" spans="3:12">
+      <c r="C38" s="2">
         <v>43411</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38">
         <v>22.61</v>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="E38">
         <v>33.11</v>
       </c>
-      <c r="F38" s="8" t="n">
+      <c r="F38">
         <v>-80</v>
       </c>
-      <c r="G38" s="8" t="n">
+      <c r="G38">
         <v>2.68</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38">
         <v>85.84</v>
       </c>
-      <c r="I38" s="8" t="n">
+      <c r="I38">
         <v>1.42</v>
       </c>
-      <c r="J38" s="8" t="n">
+      <c r="J38">
         <v>0.55</v>
       </c>
-      <c r="K38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8" t="n">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>1.97</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="9">
-      <c r="A39" s="13" t="n"/>
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="12" t="n">
+    <row r="39" spans="3:12">
+      <c r="C39" s="2">
         <v>43412</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39">
         <v>33.11</v>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="E39">
         <v>33.18</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39">
         <v>-260</v>
       </c>
-      <c r="G39" s="8" t="n">
+      <c r="G39">
         <v>5.41</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39">
         <v>251.58</v>
       </c>
-      <c r="I39" s="8" t="n">
+      <c r="I39">
         <v>1.22</v>
       </c>
-      <c r="J39" s="8" t="n">
+      <c r="J39">
         <v>1.87</v>
       </c>
-      <c r="K39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8" t="n">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>3.09</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="9">
-      <c r="A40" s="13" t="n"/>
-      <c r="B40" s="13" t="n"/>
-      <c r="C40" s="12" t="n">
+    <row r="40" spans="3:12">
+      <c r="C40" s="2">
         <v>43413</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40">
         <v>33.18</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40">
         <v>26.26</v>
       </c>
-      <c r="F40" s="8" t="n">
+      <c r="F40">
         <v>-120</v>
       </c>
-      <c r="G40" s="8" t="n">
+      <c r="G40">
         <v>1.3</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40">
         <v>110.51</v>
       </c>
-      <c r="I40" s="8" t="n">
+      <c r="I40">
         <v>0.65</v>
       </c>
-      <c r="J40" s="8" t="n">
+      <c r="J40">
         <v>0.6</v>
       </c>
-      <c r="K40" s="8" t="n">
+      <c r="K40">
         <v>0.01</v>
       </c>
-      <c r="L40" s="8" t="n">
+      <c r="L40">
         <v>1.26</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="9">
-      <c r="A41" s="13" t="n"/>
-      <c r="B41" s="13" t="n"/>
-      <c r="C41" s="12" t="n">
+    <row r="41" spans="3:12">
+      <c r="C41" s="2">
         <v>43414</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41">
         <v>26.26</v>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="E41">
         <v>35.69</v>
       </c>
-      <c r="F41" s="8" t="n">
+      <c r="F41">
         <v>-212.67</v>
       </c>
-      <c r="G41" s="8" t="n">
+      <c r="G41">
         <v>10.12</v>
       </c>
-      <c r="H41" s="8" t="n">
+      <c r="H41">
         <v>204</v>
       </c>
-      <c r="I41" s="8" t="n">
+      <c r="I41">
         <v>4.57</v>
       </c>
-      <c r="J41" s="8" t="n">
+      <c r="J41">
         <v>3.41</v>
       </c>
-      <c r="K41" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8" t="n">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>7.98</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="9">
-      <c r="A42" s="13" t="n"/>
-      <c r="B42" s="13" t="n"/>
-      <c r="C42" s="12" t="n">
+    <row r="42" spans="3:12">
+      <c r="C42" s="2">
         <v>43415</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42">
         <v>35.69</v>
       </c>
-      <c r="E42" s="8" t="n">
+      <c r="E42">
         <v>32.13</v>
       </c>
-      <c r="F42" s="8" t="n">
+      <c r="F42">
         <v>-62.84</v>
       </c>
-      <c r="G42" s="8" t="n">
+      <c r="G42">
         <v>9.109999999999999</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42">
         <v>46.23</v>
       </c>
-      <c r="I42" s="8" t="n">
+      <c r="I42">
         <v>3.28</v>
       </c>
-      <c r="J42" s="8" t="n">
+      <c r="J42">
         <v>0.66</v>
       </c>
-      <c r="K42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8" t="n">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>3.94</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="9">
-      <c r="A43" s="13" t="n"/>
-      <c r="B43" s="13" t="n"/>
-      <c r="C43" s="12" t="n">
+    <row r="43" spans="3:12">
+      <c r="C43" s="2">
         <v>43416</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43">
         <v>32.13</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43">
         <v>29.99</v>
       </c>
-      <c r="F43" s="8" t="n">
+      <c r="F43">
         <v>-63.01</v>
       </c>
-      <c r="G43" s="8" t="n">
+      <c r="G43">
         <v>7.5</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43">
         <v>49.68</v>
       </c>
-      <c r="I43" s="8" t="n">
+      <c r="I43">
         <v>3.09</v>
       </c>
-      <c r="J43" s="8" t="n">
+      <c r="J43">
         <v>0.6</v>
       </c>
-      <c r="K43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8" t="n">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>3.69</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="9">
-      <c r="A44" s="13" t="n"/>
-      <c r="B44" s="13" t="n"/>
-      <c r="C44" s="12" t="n">
+    <row r="44" spans="3:12">
+      <c r="C44" s="2">
         <v>43417</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44">
         <v>29.99</v>
       </c>
-      <c r="E44" s="8" t="n">
+      <c r="E44">
         <v>30.92</v>
       </c>
-      <c r="F44" s="8" t="n">
+      <c r="F44">
         <v>-10.59</v>
       </c>
-      <c r="G44" s="8" t="n">
+      <c r="G44">
         <v>9.029999999999999</v>
       </c>
-      <c r="H44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8" t="n">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>2.49</v>
       </c>
-      <c r="J44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="8" t="n">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>2.49</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="9">
-      <c r="A45" s="13" t="n"/>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="12" t="n">
+    <row r="45" spans="3:12">
+      <c r="C45" s="2">
         <v>43418</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45">
         <v>30.92</v>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="E45">
         <v>34.06</v>
       </c>
-      <c r="F45" s="8" t="n">
+      <c r="F45">
         <v>-10.89</v>
       </c>
-      <c r="G45" s="8" t="n">
+      <c r="G45">
         <v>3.4</v>
       </c>
-      <c r="H45" s="8" t="n">
+      <c r="H45">
         <v>9.130000000000001</v>
       </c>
-      <c r="I45" s="8" t="n">
+      <c r="I45">
         <v>1.38</v>
       </c>
-      <c r="J45" s="8" t="n">
+      <c r="J45">
         <v>0.11</v>
       </c>
-      <c r="K45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8" t="n">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>1.49</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="9">
-      <c r="A46" s="13" t="n"/>
-      <c r="B46" s="13" t="n"/>
-      <c r="C46" s="12" t="n">
+    <row r="46" spans="3:12">
+      <c r="C46" s="2">
         <v>43419</v>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46">
         <v>34.06</v>
       </c>
-      <c r="E46" s="8" t="n">
+      <c r="E46">
         <v>25.67</v>
       </c>
-      <c r="F46" s="8" t="n">
+      <c r="F46">
         <v>-44.5</v>
       </c>
-      <c r="G46" s="8" t="n">
+      <c r="G46">
         <v>4.2</v>
       </c>
-      <c r="H46" s="8" t="n">
+      <c r="H46">
         <v>29.52</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46">
         <v>2.07</v>
       </c>
-      <c r="J46" s="8" t="n">
+      <c r="J46">
         <v>0.32</v>
       </c>
-      <c r="K46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="8" t="n">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>2.39</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="9">
-      <c r="A47" s="13" t="n"/>
-      <c r="B47" s="13" t="n"/>
-      <c r="C47" s="12" t="n">
+    <row r="47" spans="3:12">
+      <c r="C47" s="2">
         <v>43420</v>
       </c>
-      <c r="D47" s="8" t="n">
+      <c r="D47">
         <v>25.67</v>
       </c>
-      <c r="E47" s="8" t="n">
+      <c r="E47">
         <v>23.36</v>
       </c>
-      <c r="F47" s="8" t="n">
+      <c r="F47">
         <v>-66.81</v>
       </c>
-      <c r="G47" s="8" t="n">
+      <c r="G47">
         <v>3.02</v>
       </c>
-      <c r="H47" s="8" t="n">
+      <c r="H47">
         <v>60.09</v>
       </c>
-      <c r="I47" s="8" t="n">
+      <c r="I47">
         <v>0.8100000000000001</v>
       </c>
-      <c r="J47" s="8" t="n">
+      <c r="J47">
         <v>0.58</v>
       </c>
-      <c r="K47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="8" t="n">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>1.39</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="9">
-      <c r="A48" s="13" t="n"/>
-      <c r="B48" s="13" t="n"/>
-      <c r="C48" s="12" t="n">
+    <row r="48" spans="3:12">
+      <c r="C48" s="2">
         <v>43421</v>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48">
         <v>23.36</v>
       </c>
-      <c r="E48" s="8" t="n">
+      <c r="E48">
         <v>33.22</v>
       </c>
-      <c r="F48" s="8" t="n">
+      <c r="F48">
         <v>-53.93</v>
       </c>
-      <c r="G48" s="8" t="n">
+      <c r="G48">
         <v>10.31</v>
       </c>
-      <c r="H48" s="8" t="n">
+      <c r="H48">
         <v>49.66</v>
       </c>
-      <c r="I48" s="8" t="n">
+      <c r="I48">
         <v>3.51</v>
       </c>
-      <c r="J48" s="8" t="n">
+      <c r="J48">
         <v>0.3</v>
       </c>
-      <c r="K48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="8" t="n">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
         <v>3.81</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="9">
-      <c r="A49" s="13" t="n"/>
-      <c r="B49" s="13" t="n"/>
-      <c r="C49" s="12" t="n">
+    <row r="49" spans="3:12">
+      <c r="C49" s="2">
         <v>43422</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49">
         <v>33.22</v>
       </c>
-      <c r="E49" s="8" t="n">
+      <c r="E49">
         <v>22.84</v>
       </c>
-      <c r="F49" s="8" t="n">
+      <c r="F49">
         <v>-57.92</v>
       </c>
-      <c r="G49" s="8" t="n">
+      <c r="G49">
         <v>0.46</v>
       </c>
-      <c r="H49" s="8" t="n">
+      <c r="H49">
         <v>45.78</v>
       </c>
-      <c r="I49" s="8" t="n">
+      <c r="I49">
         <v>0.2</v>
       </c>
-      <c r="J49" s="8" t="n">
+      <c r="J49">
         <v>1.1</v>
       </c>
-      <c r="K49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="8" t="n">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>1.3</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="9">
-      <c r="A50" s="13" t="n"/>
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="12" t="n">
+    <row r="50" spans="3:12">
+      <c r="C50" s="2">
         <v>43423</v>
       </c>
-      <c r="D50" s="8" t="n">
+      <c r="D50">
         <v>22.84</v>
       </c>
-      <c r="E50" s="8" t="n">
+      <c r="E50">
         <v>25.7</v>
       </c>
-      <c r="F50" s="8" t="n">
+      <c r="F50">
         <v>-23.31</v>
       </c>
-      <c r="G50" s="8" t="n">
+      <c r="G50">
         <v>4.39</v>
       </c>
-      <c r="H50" s="8" t="n">
+      <c r="H50">
         <v>19.34</v>
       </c>
-      <c r="I50" s="8" t="n">
+      <c r="I50">
         <v>1.92</v>
       </c>
-      <c r="J50" s="8" t="n">
+      <c r="J50">
         <v>0.53</v>
       </c>
-      <c r="K50" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="8" t="n">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>2.45</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="9">
-      <c r="A51" s="13" t="n"/>
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="12" t="n">
+    <row r="51" spans="3:12">
+      <c r="C51" s="2">
         <v>43424</v>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51">
         <v>25.7</v>
       </c>
-      <c r="E51" s="8" t="n">
+      <c r="E51">
         <v>30.4</v>
       </c>
-      <c r="F51" s="8" t="n">
+      <c r="F51">
         <v>-70.48999999999999</v>
       </c>
-      <c r="G51" s="8" t="n">
+      <c r="G51">
         <v>7.81</v>
       </c>
-      <c r="H51" s="8" t="n">
+      <c r="H51">
         <v>63.63</v>
       </c>
-      <c r="I51" s="8" t="n">
+      <c r="I51">
         <v>3.17</v>
       </c>
-      <c r="J51" s="8" t="n">
+      <c r="J51">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51">
         <v>0.02</v>
       </c>
-      <c r="L51" s="8" t="n">
+      <c r="L51">
         <v>3.75</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="9">
-      <c r="A52" s="13" t="n"/>
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="12" t="n">
+    <row r="52" spans="3:12">
+      <c r="C52" s="2">
         <v>43425</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52">
         <v>30.4</v>
       </c>
-      <c r="E52" s="8" t="n">
+      <c r="E52">
         <v>40.2</v>
       </c>
-      <c r="F52" s="8" t="n">
+      <c r="F52">
         <v>-71</v>
       </c>
-      <c r="G52" s="8" t="n">
+      <c r="G52">
         <v>7.39</v>
       </c>
-      <c r="H52" s="8" t="n">
+      <c r="H52">
         <v>63.71</v>
       </c>
-      <c r="I52" s="8" t="n">
+      <c r="I52">
         <v>9.23</v>
       </c>
-      <c r="J52" s="8" t="n">
+      <c r="J52">
         <v>0.45</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52">
         <v>0.02</v>
       </c>
-      <c r="L52" s="8" t="n">
+      <c r="L52">
         <v>9.699999999999999</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="9">
-      <c r="A53" s="13" t="n"/>
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="12" t="n">
+    <row r="53" spans="3:12">
+      <c r="C53" s="2">
         <v>43426</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53">
         <v>40.2</v>
       </c>
-      <c r="E53" s="8" t="n">
+      <c r="E53">
         <v>24.44</v>
       </c>
-      <c r="F53" s="8" t="n">
+      <c r="F53">
         <v>-692.63</v>
       </c>
-      <c r="G53" s="8" t="n">
+      <c r="G53">
         <v>3.48</v>
       </c>
-      <c r="H53" s="8" t="n">
+      <c r="H53">
         <v>668.3099999999999</v>
       </c>
-      <c r="I53" s="8" t="n">
+      <c r="I53">
         <v>1.57</v>
       </c>
-      <c r="J53" s="8" t="n">
+      <c r="J53">
         <v>3.51</v>
       </c>
-      <c r="K53" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="8" t="n">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>5.08</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="9">
-      <c r="A54" s="13" t="n"/>
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="12" t="n">
+    <row r="54" spans="3:12">
+      <c r="C54" s="2">
         <v>43427</v>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54">
         <v>24.44</v>
       </c>
-      <c r="E54" s="8" t="n">
+      <c r="E54">
         <v>34.41</v>
       </c>
-      <c r="F54" s="8" t="n">
+      <c r="F54">
         <v>-55.43</v>
       </c>
-      <c r="G54" s="8" t="n">
+      <c r="G54">
         <v>5.52</v>
       </c>
-      <c r="H54" s="8" t="n">
+      <c r="H54">
         <v>57.63</v>
       </c>
-      <c r="I54" s="8" t="n">
+      <c r="I54">
         <v>1.72</v>
       </c>
-      <c r="J54" s="8" t="n">
+      <c r="J54">
         <v>0.52</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54">
         <v>0.01</v>
       </c>
-      <c r="L54" s="8" t="n">
+      <c r="L54">
         <v>2.25</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="9">
-      <c r="A55" s="13" t="n"/>
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="12" t="n">
+    <row r="55" spans="3:12">
+      <c r="C55" s="2">
         <v>43428</v>
       </c>
-      <c r="D55" s="8" t="n">
+      <c r="D55">
         <v>34.41</v>
       </c>
-      <c r="E55" s="8" t="n">
+      <c r="E55">
         <v>22.6</v>
       </c>
-      <c r="F55" s="8" t="n">
+      <c r="F55">
         <v>-121.84</v>
       </c>
-      <c r="G55" s="8" t="n">
+      <c r="G55">
         <v>2.05</v>
       </c>
-      <c r="H55" s="8" t="n">
+      <c r="H55">
         <v>106.04</v>
       </c>
-      <c r="I55" s="8" t="n">
+      <c r="I55">
         <v>1.15</v>
       </c>
-      <c r="J55" s="8" t="n">
+      <c r="J55">
         <v>0.79</v>
       </c>
-      <c r="K55" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="8" t="n">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>1.94</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="9">
-      <c r="A56" s="13" t="n"/>
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="12" t="n">
+    <row r="56" spans="3:12">
+      <c r="C56" s="2">
         <v>43429</v>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56">
         <v>22.6</v>
       </c>
-      <c r="E56" s="8" t="n">
+      <c r="E56">
         <v>23.6</v>
       </c>
-      <c r="F56" s="8" t="n">
+      <c r="F56">
         <v>-53.53</v>
       </c>
-      <c r="G56" s="8" t="n">
+      <c r="G56">
         <v>3.06</v>
       </c>
-      <c r="H56" s="8" t="n">
+      <c r="H56">
         <v>50.05</v>
       </c>
-      <c r="I56" s="8" t="n">
+      <c r="I56">
         <v>1.14</v>
       </c>
-      <c r="J56" s="8" t="n">
+      <c r="J56">
         <v>0.27</v>
       </c>
-      <c r="K56" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="8" t="n">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>1.42</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="9">
-      <c r="A57" s="13" t="n"/>
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="12" t="n">
+    <row r="57" spans="3:12">
+      <c r="C57" s="2">
         <v>43430</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57">
         <v>23.6</v>
       </c>
-      <c r="E57" s="8" t="n">
+      <c r="E57">
         <v>32.13</v>
       </c>
-      <c r="F57" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8" t="n">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>5.58</v>
       </c>
-      <c r="H57" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8" t="n">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>2.95</v>
       </c>
-      <c r="J57" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="8" t="n">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>0.01</v>
       </c>
-      <c r="L57" s="8" t="n">
+      <c r="L57">
         <v>2.96</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="9">
-      <c r="A58" s="13" t="n"/>
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="12" t="n">
+    <row r="58" spans="3:12">
+      <c r="C58" s="2">
         <v>43431</v>
       </c>
-      <c r="D58" s="8" t="n">
+      <c r="D58">
         <v>32.13</v>
       </c>
-      <c r="E58" s="8" t="n">
+      <c r="E58">
         <v>40.14</v>
       </c>
-      <c r="F58" s="8" t="n">
+      <c r="F58">
         <v>-64.64</v>
       </c>
-      <c r="G58" s="8" t="n">
+      <c r="G58">
         <v>10.03</v>
       </c>
-      <c r="H58" s="8" t="n">
+      <c r="H58">
         <v>51.24</v>
       </c>
-      <c r="I58" s="8" t="n">
+      <c r="I58">
         <v>10.72</v>
       </c>
-      <c r="J58" s="8" t="n">
+      <c r="J58">
         <v>0.66</v>
       </c>
-      <c r="K58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="8" t="n">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>11.38</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="9">
-      <c r="A59" s="13" t="n"/>
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="12" t="n">
+    <row r="59" spans="3:12">
+      <c r="C59" s="2">
         <v>43432</v>
       </c>
-      <c r="D59" s="8" t="n">
+      <c r="D59">
         <v>40.14</v>
       </c>
-      <c r="E59" s="8" t="n">
+      <c r="E59">
         <v>39.9</v>
       </c>
-      <c r="F59" s="8" t="n">
+      <c r="F59">
         <v>-180</v>
       </c>
-      <c r="G59" s="8" t="n">
+      <c r="G59">
         <v>3.79</v>
       </c>
-      <c r="H59" s="8" t="n">
+      <c r="H59">
         <v>166.42</v>
       </c>
-      <c r="I59" s="8" t="n">
+      <c r="I59">
         <v>8.73</v>
       </c>
-      <c r="J59" s="8" t="n">
+      <c r="J59">
         <v>0.82</v>
       </c>
-      <c r="K59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="8" t="n">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>9.550000000000001</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="9">
-      <c r="A60" s="13" t="n"/>
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="12" t="n">
+    <row r="60" spans="3:12">
+      <c r="C60" s="2">
         <v>43433</v>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60">
         <v>39.9</v>
       </c>
-      <c r="E60" s="8" t="n">
+      <c r="E60">
         <v>35.17</v>
       </c>
-      <c r="F60" s="8" t="n">
+      <c r="F60">
         <v>-148.27</v>
       </c>
-      <c r="G60" s="8" t="n">
+      <c r="G60">
         <v>3.36</v>
       </c>
-      <c r="H60" s="8" t="n">
+      <c r="H60">
         <v>136.3</v>
       </c>
-      <c r="I60" s="8" t="n">
+      <c r="I60">
         <v>2.43</v>
       </c>
-      <c r="J60" s="8" t="n">
+      <c r="J60">
         <v>1.44</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60">
         <v>0.01</v>
       </c>
-      <c r="L60" s="8" t="n">
+      <c r="L60">
         <v>3.88</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="9">
-      <c r="A61" s="13" t="n"/>
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="12" t="n">
+    <row r="61" spans="3:12">
+      <c r="C61" s="2">
         <v>43434</v>
       </c>
-      <c r="D61" s="8" t="n">
+      <c r="D61">
         <v>35.17</v>
       </c>
-      <c r="E61" s="8" t="n">
+      <c r="E61">
         <v>110.19</v>
       </c>
-      <c r="F61" s="8" t="n">
+      <c r="F61">
         <v>-90.06999999999999</v>
       </c>
-      <c r="G61" s="8" t="n">
+      <c r="G61">
         <v>40.78</v>
       </c>
-      <c r="H61" s="8" t="n">
+      <c r="H61">
         <v>79.84999999999999</v>
       </c>
-      <c r="I61" s="8" t="n">
+      <c r="I61">
         <v>44.11</v>
       </c>
-      <c r="J61" s="8" t="n">
+      <c r="J61">
         <v>0.35</v>
       </c>
-      <c r="K61" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="8" t="n">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>44.46</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="9">
-      <c r="A62" s="13" t="n"/>
-      <c r="B62" s="13" t="n"/>
-      <c r="C62" s="12" t="n">
+    <row r="62" spans="3:12">
+      <c r="C62" s="2">
         <v>43435</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62">
         <v>110.19</v>
       </c>
-      <c r="E62" s="8" t="n">
+      <c r="E62">
         <v>31.2</v>
       </c>
-      <c r="F62" s="8" t="n">
+      <c r="F62">
         <v>-253.89</v>
       </c>
-      <c r="G62" s="8" t="n">
+      <c r="G62">
         <v>7.03</v>
       </c>
-      <c r="H62" s="8" t="n">
+      <c r="H62">
         <v>159.89</v>
       </c>
-      <c r="I62" s="8" t="n">
+      <c r="I62">
         <v>4.77</v>
       </c>
-      <c r="J62" s="8" t="n">
+      <c r="J62">
         <v>3.21</v>
       </c>
-      <c r="K62" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" s="8" t="n">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>7.98</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="9">
-      <c r="A63" s="13" t="n"/>
-      <c r="B63" s="13" t="n"/>
-      <c r="C63" s="12" t="n">
+    <row r="63" spans="3:12">
+      <c r="C63" s="2">
         <v>43436</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63">
         <v>31.2</v>
       </c>
-      <c r="E63" s="8" t="n">
+      <c r="E63">
         <v>23.78</v>
       </c>
-      <c r="F63" s="8" t="n">
+      <c r="F63">
         <v>-29.19</v>
       </c>
-      <c r="G63" s="8" t="n">
+      <c r="G63">
         <v>2.78</v>
       </c>
-      <c r="H63" s="8" t="n">
+      <c r="H63">
         <v>17.35</v>
       </c>
-      <c r="I63" s="8" t="n">
+      <c r="I63">
         <v>1.6</v>
       </c>
-      <c r="J63" s="8" t="n">
+      <c r="J63">
         <v>0.03</v>
       </c>
-      <c r="K63" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" s="8" t="n">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>1.64</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="9">
-      <c r="A64" s="13" t="n"/>
-      <c r="B64" s="13" t="n"/>
-      <c r="C64" s="12" t="n">
+    <row r="64" spans="3:12">
+      <c r="C64" s="2">
         <v>43437</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64">
         <v>23.78</v>
       </c>
-      <c r="E64" s="8" t="n">
+      <c r="E64">
         <v>29.7</v>
       </c>
-      <c r="F64" s="8" t="n">
+      <c r="F64">
         <v>-40</v>
       </c>
-      <c r="G64" s="8" t="n">
+      <c r="G64">
         <v>4.24</v>
       </c>
-      <c r="H64" s="8" t="n">
+      <c r="H64">
         <v>39.57</v>
       </c>
-      <c r="I64" s="8" t="n">
+      <c r="I64">
         <v>1.89</v>
       </c>
-      <c r="J64" s="8" t="n">
+      <c r="J64">
         <v>0.22</v>
       </c>
-      <c r="K64" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="8" t="n">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>2.11</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="9">
-      <c r="A65" s="13" t="n"/>
-      <c r="B65" s="13" t="n"/>
-      <c r="C65" s="12" t="n">
+    <row r="65" spans="3:12">
+      <c r="C65" s="2">
         <v>43438</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65">
         <v>29.7</v>
       </c>
-      <c r="E65" s="8" t="n">
+      <c r="E65">
         <v>28.43</v>
       </c>
-      <c r="F65" s="8" t="n">
+      <c r="F65">
         <v>-50.3</v>
       </c>
-      <c r="G65" s="8" t="n">
+      <c r="G65">
         <v>1.77</v>
       </c>
-      <c r="H65" s="8" t="n">
+      <c r="H65">
         <v>46.02</v>
       </c>
-      <c r="I65" s="8" t="n">
+      <c r="I65">
         <v>1.07</v>
       </c>
-      <c r="J65" s="8" t="n">
+      <c r="J65">
         <v>0.17</v>
       </c>
-      <c r="K65" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="8" t="n">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>1.24</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="9">
-      <c r="A66" s="13" t="n"/>
-      <c r="B66" s="13" t="n"/>
-      <c r="C66" s="12" t="n">
+    <row r="66" spans="3:12">
+      <c r="C66" s="2">
         <v>43439</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66">
         <v>28.43</v>
       </c>
-      <c r="E66" s="8" t="n">
+      <c r="E66">
         <v>23.71</v>
       </c>
-      <c r="F66" s="8" t="n">
+      <c r="F66">
         <v>-111.4</v>
       </c>
-      <c r="G66" s="8" t="n">
+      <c r="G66">
         <v>2.89</v>
       </c>
-      <c r="H66" s="8" t="n">
+      <c r="H66">
         <v>101</v>
       </c>
-      <c r="I66" s="8" t="n">
+      <c r="I66">
         <v>1.43</v>
       </c>
-      <c r="J66" s="8" t="n">
+      <c r="J66">
         <v>1.36</v>
       </c>
-      <c r="K66" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="8" t="n">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
         <v>2.8</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="9">
-      <c r="A67" s="13" t="n"/>
-      <c r="B67" s="13" t="n"/>
-      <c r="C67" s="12" t="n">
+    <row r="67" spans="3:12">
+      <c r="C67" s="2">
         <v>43440</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67">
         <v>23.71</v>
       </c>
-      <c r="E67" s="8" t="n">
+      <c r="E67">
         <v>23.28</v>
       </c>
-      <c r="F67" s="8" t="n">
+      <c r="F67">
         <v>-111.18</v>
       </c>
-      <c r="G67" s="8" t="n">
+      <c r="G67">
         <v>2.18</v>
       </c>
-      <c r="H67" s="8" t="n">
+      <c r="H67">
         <v>106.35</v>
       </c>
-      <c r="I67" s="8" t="n">
+      <c r="I67">
         <v>1.68</v>
       </c>
-      <c r="J67" s="8" t="n">
+      <c r="J67">
         <v>0.52</v>
       </c>
-      <c r="K67" s="8" t="n">
+      <c r="K67">
         <v>0.02</v>
       </c>
-      <c r="L67" s="8" t="n">
+      <c r="L67">
         <v>2.22</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="9">
-      <c r="A68" s="13" t="n"/>
-      <c r="B68" s="13" t="n"/>
-      <c r="C68" s="12" t="n">
+    <row r="68" spans="3:12">
+      <c r="C68" s="2">
         <v>43441</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D68">
         <v>23.28</v>
       </c>
-      <c r="E68" s="8" t="n">
+      <c r="E68">
         <v>37.17</v>
       </c>
-      <c r="F68" s="8" t="n">
+      <c r="F68">
         <v>-80</v>
       </c>
-      <c r="G68" s="8" t="n">
+      <c r="G68">
         <v>14.15</v>
       </c>
-      <c r="H68" s="8" t="n">
+      <c r="H68">
         <v>77.48</v>
       </c>
-      <c r="I68" s="8" t="n">
+      <c r="I68">
         <v>1.94</v>
       </c>
-      <c r="J68" s="8" t="n">
+      <c r="J68">
         <v>0.28</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68">
         <v>0.03</v>
       </c>
-      <c r="L68" s="8" t="n">
+      <c r="L68">
         <v>2.26</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="9">
-      <c r="A69" s="13" t="n"/>
-      <c r="B69" s="13" t="n"/>
-      <c r="C69" s="12" t="n">
+    <row r="69" spans="3:12">
+      <c r="C69" s="2">
         <v>43442</v>
       </c>
-      <c r="D69" s="8" t="n">
+      <c r="D69">
         <v>37.17</v>
       </c>
-      <c r="E69" s="8" t="n">
+      <c r="E69">
         <v>22.83</v>
       </c>
-      <c r="F69" s="8" t="n">
+      <c r="F69">
         <v>-137.78</v>
       </c>
-      <c r="G69" s="8" t="n">
+      <c r="G69">
         <v>2.31</v>
       </c>
-      <c r="H69" s="8" t="n">
+      <c r="H69">
         <v>120.33</v>
       </c>
-      <c r="I69" s="8" t="n">
+      <c r="I69">
         <v>0.23</v>
       </c>
-      <c r="J69" s="8" t="n">
+      <c r="J69">
         <v>0.55</v>
       </c>
-      <c r="K69" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="8" t="n">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>0.79</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="9">
-      <c r="A70" s="13" t="n"/>
-      <c r="B70" s="13" t="n"/>
-      <c r="C70" s="12" t="n">
+    <row r="70" spans="3:12">
+      <c r="C70" s="2">
         <v>43443</v>
       </c>
-      <c r="D70" s="8" t="n">
+      <c r="D70">
         <v>22.83</v>
       </c>
-      <c r="E70" s="8" t="n">
+      <c r="E70">
         <v>20.02</v>
       </c>
-      <c r="F70" s="8" t="n">
+      <c r="F70">
         <v>-53.51</v>
       </c>
-      <c r="G70" s="8" t="n">
+      <c r="G70">
         <v>0.28</v>
       </c>
-      <c r="H70" s="8" t="n">
+      <c r="H70">
         <v>49.87</v>
       </c>
-      <c r="I70" s="8" t="n">
+      <c r="I70">
         <v>0.34</v>
       </c>
-      <c r="J70" s="8" t="n">
+      <c r="J70">
         <v>0.21</v>
       </c>
-      <c r="K70" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" s="8" t="n">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
         <v>0.55</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="9">
-      <c r="A71" s="13" t="n"/>
-      <c r="B71" s="13" t="n"/>
-      <c r="C71" s="12" t="n">
+    <row r="71" spans="3:12">
+      <c r="C71" s="2">
         <v>43444</v>
       </c>
-      <c r="D71" s="8" t="n">
+      <c r="D71">
         <v>20.02</v>
       </c>
-      <c r="E71" s="8" t="n">
+      <c r="E71">
         <v>57.88</v>
       </c>
-      <c r="F71" s="8" t="n">
+      <c r="F71">
         <v>-10.8</v>
       </c>
-      <c r="G71" s="8" t="n">
+      <c r="G71">
         <v>34.23</v>
       </c>
-      <c r="H71" s="8" t="n">
+      <c r="H71">
         <v>9.91</v>
       </c>
-      <c r="I71" s="8" t="n">
+      <c r="I71">
         <v>4.24</v>
       </c>
-      <c r="J71" s="8" t="n">
+      <c r="J71">
         <v>0.27</v>
       </c>
-      <c r="K71" s="8" t="n">
+      <c r="K71">
         <v>0.01</v>
       </c>
-      <c r="L71" s="8" t="n">
+      <c r="L71">
         <v>4.52</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="9">
-      <c r="A72" s="13" t="n"/>
-      <c r="B72" s="13" t="n"/>
-      <c r="C72" s="12" t="n">
+    <row r="72" spans="3:12">
+      <c r="C72" s="2">
         <v>43445</v>
       </c>
-      <c r="D72" s="8" t="n">
+      <c r="D72">
         <v>57.88</v>
       </c>
-      <c r="E72" s="8" t="n">
+      <c r="E72">
         <v>33.69</v>
       </c>
-      <c r="F72" s="8" t="n">
+      <c r="F72">
         <v>-188.73</v>
       </c>
-      <c r="G72" s="8" t="n">
+      <c r="G72">
         <v>11.51</v>
       </c>
-      <c r="H72" s="8" t="n">
+      <c r="H72">
         <v>147.62</v>
       </c>
-      <c r="I72" s="8" t="n">
+      <c r="I72">
         <v>2.78</v>
       </c>
-      <c r="J72" s="8" t="n">
+      <c r="J72">
         <v>2.63</v>
       </c>
-      <c r="K72" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" s="8" t="n">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>5.41</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="9">
-      <c r="A73" s="13" t="n"/>
-      <c r="B73" s="13" t="n"/>
-      <c r="C73" s="12" t="n">
+    <row r="73" spans="3:12">
+      <c r="C73" s="2">
         <v>43446</v>
       </c>
-      <c r="D73" s="8" t="n">
+      <c r="D73">
         <v>33.69</v>
       </c>
-      <c r="E73" s="8" t="n">
+      <c r="E73">
         <v>35.49</v>
       </c>
-      <c r="F73" s="8" t="n">
+      <c r="F73">
         <v>-54.27</v>
       </c>
-      <c r="G73" s="8" t="n">
+      <c r="G73">
         <v>5.4</v>
       </c>
-      <c r="H73" s="8" t="n">
+      <c r="H73">
         <v>48.55</v>
       </c>
-      <c r="I73" s="8" t="n">
+      <c r="I73">
         <v>1.71</v>
       </c>
-      <c r="J73" s="8" t="n">
+      <c r="J73">
         <v>0.4</v>
       </c>
-      <c r="K73" s="8" t="n">
+      <c r="K73">
         <v>0.01</v>
       </c>
-      <c r="L73" s="8" t="n">
+      <c r="L73">
         <v>2.12</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="9">
-      <c r="A74" s="13" t="n"/>
-      <c r="B74" s="13" t="n"/>
-      <c r="C74" s="12" t="n">
+    <row r="74" spans="3:12">
+      <c r="C74" s="2">
         <v>43447</v>
       </c>
-      <c r="D74" s="8" t="n">
+      <c r="D74">
         <v>35.49</v>
       </c>
-      <c r="E74" s="8" t="n">
+      <c r="E74">
         <v>30.71</v>
       </c>
-      <c r="F74" s="8" t="n">
+      <c r="F74">
         <v>-150.86</v>
       </c>
-      <c r="G74" s="8" t="n">
+      <c r="G74">
         <v>9.970000000000001</v>
       </c>
-      <c r="H74" s="8" t="n">
+      <c r="H74">
         <v>132.29</v>
       </c>
-      <c r="I74" s="8" t="n">
+      <c r="I74">
         <v>1.34</v>
       </c>
-      <c r="J74" s="8" t="n">
+      <c r="J74">
         <v>2.47</v>
       </c>
-      <c r="K74" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="8" t="n">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>3.82</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="9">
-      <c r="A75" s="13" t="n"/>
-      <c r="B75" s="13" t="n"/>
-      <c r="C75" s="12" t="n">
+    <row r="75" spans="3:12">
+      <c r="C75" s="2">
         <v>43448</v>
       </c>
-      <c r="D75" s="8" t="n">
+      <c r="D75">
         <v>30.71</v>
       </c>
-      <c r="E75" s="8" t="n">
+      <c r="E75">
         <v>22.84</v>
       </c>
-      <c r="F75" s="8" t="n">
+      <c r="F75">
         <v>-145.5</v>
       </c>
-      <c r="G75" s="8" t="n">
+      <c r="G75">
         <v>2.53</v>
       </c>
-      <c r="H75" s="8" t="n">
+      <c r="H75">
         <v>133.64</v>
       </c>
-      <c r="I75" s="8" t="n">
+      <c r="I75">
         <v>0.92</v>
       </c>
-      <c r="J75" s="8" t="n">
+      <c r="J75">
         <v>0.55</v>
       </c>
-      <c r="K75" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" s="8" t="n">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
         <v>1.47</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="9">
-      <c r="A76" s="13" t="n"/>
-      <c r="B76" s="13" t="n"/>
-      <c r="C76" s="12" t="n">
+    <row r="76" spans="3:12">
+      <c r="C76" s="2">
         <v>43449</v>
       </c>
-      <c r="D76" s="8" t="n">
+      <c r="D76">
         <v>22.84</v>
       </c>
-      <c r="E76" s="8" t="n">
+      <c r="E76">
         <v>26.98</v>
       </c>
-      <c r="F76" s="8" t="n">
+      <c r="F76">
         <v>-80</v>
       </c>
-      <c r="G76" s="8" t="n">
+      <c r="G76">
         <v>2.68</v>
       </c>
-      <c r="H76" s="8" t="n">
+      <c r="H76">
         <v>79.70999999999999</v>
       </c>
-      <c r="I76" s="8" t="n">
+      <c r="I76">
         <v>1.23</v>
       </c>
-      <c r="J76" s="8" t="n">
+      <c r="J76">
         <v>0.51</v>
       </c>
-      <c r="K76" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" s="8" t="n">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>1.74</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="9">
-      <c r="A77" s="13" t="n"/>
-      <c r="B77" s="13" t="n"/>
-      <c r="C77" s="12" t="n">
+    <row r="77" spans="3:12">
+      <c r="C77" s="2">
         <v>43450</v>
       </c>
-      <c r="D77" s="8" t="n">
+      <c r="D77">
         <v>26.98</v>
       </c>
-      <c r="E77" s="8" t="n">
+      <c r="E77">
         <v>27.72</v>
       </c>
-      <c r="F77" s="8" t="n">
+      <c r="F77">
         <v>-60</v>
       </c>
-      <c r="G77" s="8" t="n">
+      <c r="G77">
         <v>0.87</v>
       </c>
-      <c r="H77" s="8" t="n">
+      <c r="H77">
         <v>58.99</v>
       </c>
-      <c r="I77" s="8" t="n">
+      <c r="I77">
         <v>0.23</v>
       </c>
-      <c r="J77" s="8" t="n">
+      <c r="J77">
         <v>0.66</v>
       </c>
-      <c r="K77" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" s="8" t="n">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
         <v>0.89</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="9">
-      <c r="A78" s="13" t="n"/>
-      <c r="B78" s="13" t="n"/>
-      <c r="C78" s="12" t="n">
+    <row r="78" spans="3:12">
+      <c r="C78" s="2">
         <v>43451</v>
       </c>
-      <c r="D78" s="8" t="n">
+      <c r="D78">
         <v>27.72</v>
       </c>
-      <c r="E78" s="8" t="n">
+      <c r="E78">
         <v>48.17</v>
       </c>
-      <c r="F78" s="8" t="n">
+      <c r="F78">
         <v>-20</v>
       </c>
-      <c r="G78" s="8" t="n">
+      <c r="G78">
         <v>15.63</v>
       </c>
-      <c r="H78" s="8" t="n">
+      <c r="H78">
         <v>20</v>
       </c>
-      <c r="I78" s="8" t="n">
+      <c r="I78">
         <v>4.79</v>
       </c>
-      <c r="J78" s="8" t="n">
+      <c r="J78">
         <v>0.02</v>
       </c>
-      <c r="K78" s="8" t="n">
+      <c r="K78">
         <v>0.01</v>
       </c>
-      <c r="L78" s="8" t="n">
+      <c r="L78">
         <v>4.82</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="9">
-      <c r="A79" s="13" t="n"/>
-      <c r="B79" s="13" t="n"/>
-      <c r="C79" s="12" t="n">
+    <row r="79" spans="3:12">
+      <c r="C79" s="2">
         <v>43452</v>
       </c>
-      <c r="D79" s="8" t="n">
+      <c r="D79">
         <v>48.17</v>
       </c>
-      <c r="E79" s="8" t="n">
+      <c r="E79">
         <v>21.49</v>
       </c>
-      <c r="F79" s="8" t="n">
+      <c r="F79">
         <v>-168.59</v>
       </c>
-      <c r="G79" s="8" t="n">
+      <c r="G79">
         <v>1.22</v>
       </c>
-      <c r="H79" s="8" t="n">
+      <c r="H79">
         <v>138.53</v>
       </c>
-      <c r="I79" s="8" t="n">
+      <c r="I79">
         <v>0.87</v>
       </c>
-      <c r="J79" s="8" t="n">
+      <c r="J79">
         <v>1.28</v>
       </c>
-      <c r="K79" s="8" t="n">
+      <c r="K79">
         <v>0.01</v>
       </c>
-      <c r="L79" s="8" t="n">
+      <c r="L79">
         <v>2.16</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="9">
-      <c r="A80" s="13" t="n"/>
-      <c r="B80" s="13" t="n"/>
-      <c r="C80" s="12" t="n">
+    <row r="80" spans="3:12">
+      <c r="C80" s="2">
         <v>43453</v>
       </c>
-      <c r="D80" s="8" t="n">
+      <c r="D80">
         <v>21.49</v>
       </c>
-      <c r="E80" s="8" t="n">
+      <c r="E80">
         <v>25.95</v>
       </c>
-      <c r="F80" s="8" t="n">
+      <c r="F80">
         <v>-42.87</v>
       </c>
-      <c r="G80" s="8" t="n">
+      <c r="G80">
         <v>4.01</v>
       </c>
-      <c r="H80" s="8" t="n">
+      <c r="H80">
         <v>40.58</v>
       </c>
-      <c r="I80" s="8" t="n">
+      <c r="I80">
         <v>2.54</v>
       </c>
-      <c r="J80" s="8" t="n">
+      <c r="J80">
         <v>0.19</v>
       </c>
-      <c r="K80" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="8" t="n">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
         <v>2.74</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="9">
-      <c r="A81" s="13" t="n"/>
-      <c r="B81" s="13" t="n"/>
-      <c r="C81" s="12" t="n">
+    <row r="81" spans="3:12">
+      <c r="C81" s="2">
         <v>43454</v>
       </c>
-      <c r="D81" s="8" t="n">
+      <c r="D81">
         <v>25.95</v>
       </c>
-      <c r="E81" s="8" t="n">
+      <c r="E81">
         <v>79.87</v>
       </c>
-      <c r="F81" s="8" t="n">
+      <c r="F81">
         <v>-60</v>
       </c>
-      <c r="G81" s="8" t="n">
+      <c r="G81">
         <v>49.57</v>
       </c>
-      <c r="H81" s="8" t="n">
+      <c r="H81">
         <v>54.29</v>
       </c>
-      <c r="I81" s="8" t="n">
+      <c r="I81">
         <v>9.539999999999999</v>
       </c>
-      <c r="J81" s="8" t="n">
+      <c r="J81">
         <v>0.52</v>
       </c>
-      <c r="K81" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" s="8" t="n">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
         <v>10.06</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="9">
-      <c r="A82" s="13" t="n"/>
-      <c r="B82" s="13" t="n"/>
-      <c r="C82" s="12" t="n">
+    <row r="82" spans="3:12">
+      <c r="C82" s="2">
         <v>43455</v>
       </c>
-      <c r="D82" s="8" t="n">
+      <c r="D82">
         <v>79.87</v>
       </c>
-      <c r="E82" s="8" t="n">
+      <c r="E82">
         <v>35.32</v>
       </c>
-      <c r="F82" s="8" t="n">
+      <c r="F82">
         <v>-210.82</v>
       </c>
-      <c r="G82" s="8" t="n">
+      <c r="G82">
         <v>12.63</v>
       </c>
-      <c r="H82" s="8" t="n">
+      <c r="H82">
         <v>149.42</v>
       </c>
-      <c r="I82" s="8" t="n">
+      <c r="I82">
         <v>3.28</v>
       </c>
-      <c r="J82" s="8" t="n">
+      <c r="J82">
         <v>0.93</v>
       </c>
-      <c r="K82" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="8" t="n">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>4.22</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="9">
-      <c r="A83" s="13" t="n"/>
-      <c r="B83" s="13" t="n"/>
-      <c r="C83" s="12" t="n">
+    <row r="83" spans="3:12">
+      <c r="C83" s="2">
         <v>43456</v>
       </c>
-      <c r="D83" s="8" t="n">
+      <c r="D83">
         <v>35.32</v>
       </c>
-      <c r="E83" s="8" t="n">
+      <c r="E83">
         <v>22.23</v>
       </c>
-      <c r="F83" s="8" t="n">
+      <c r="F83">
         <v>-91.89</v>
       </c>
-      <c r="G83" s="8" t="n">
+      <c r="G83">
         <v>2.14</v>
       </c>
-      <c r="H83" s="8" t="n">
+      <c r="H83">
         <v>75.3</v>
       </c>
-      <c r="I83" s="8" t="n">
+      <c r="I83">
         <v>0.6899999999999999</v>
       </c>
-      <c r="J83" s="8" t="n">
+      <c r="J83">
         <v>0.67</v>
       </c>
-      <c r="K83" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" s="8" t="n">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
         <v>1.36</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="9">
-      <c r="A84" s="13" t="n"/>
-      <c r="B84" s="13" t="n"/>
-      <c r="C84" s="12" t="n">
+    <row r="84" spans="3:12">
+      <c r="C84" s="2">
         <v>43457</v>
       </c>
-      <c r="D84" s="8" t="n">
+      <c r="D84">
         <v>22.23</v>
       </c>
-      <c r="E84" s="8" t="n">
+      <c r="E84">
         <v>26.56</v>
       </c>
-      <c r="F84" s="8" t="n">
+      <c r="F84">
         <v>-40</v>
       </c>
-      <c r="G84" s="8" t="n">
+      <c r="G84">
         <v>2.3</v>
       </c>
-      <c r="H84" s="8" t="n">
+      <c r="H84">
         <v>40.9</v>
       </c>
-      <c r="I84" s="8" t="n">
+      <c r="I84">
         <v>0.42</v>
       </c>
-      <c r="J84" s="8" t="n">
+      <c r="J84">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K84" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" s="8" t="n">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
         <v>1.11</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="9">
-      <c r="A85" s="13" t="n"/>
-      <c r="B85" s="13" t="n"/>
-      <c r="C85" s="12" t="n">
+    <row r="85" spans="3:12">
+      <c r="C85" s="2">
         <v>43458</v>
       </c>
-      <c r="D85" s="8" t="n">
+      <c r="D85">
         <v>26.56</v>
       </c>
-      <c r="E85" s="8" t="n">
+      <c r="E85">
         <v>34.04</v>
       </c>
-      <c r="F85" s="8" t="n">
+      <c r="F85">
         <v>-40</v>
       </c>
-      <c r="G85" s="8" t="n">
+      <c r="G85">
         <v>5.41</v>
       </c>
-      <c r="H85" s="8" t="n">
+      <c r="H85">
         <v>40</v>
       </c>
-      <c r="I85" s="8" t="n">
+      <c r="I85">
         <v>1.94</v>
       </c>
-      <c r="J85" s="8" t="n">
+      <c r="J85">
         <v>0.13</v>
       </c>
-      <c r="K85" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" s="8" t="n">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
         <v>2.08</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="9">
-      <c r="A86" s="13" t="n"/>
-      <c r="B86" s="13" t="n"/>
-      <c r="C86" s="12" t="n">
+    <row r="86" spans="3:12">
+      <c r="C86" s="2">
         <v>43459</v>
       </c>
-      <c r="D86" s="8" t="n">
+      <c r="D86">
         <v>34.04</v>
       </c>
-      <c r="E86" s="8" t="n">
+      <c r="E86">
         <v>25.66</v>
       </c>
-      <c r="F86" s="8" t="n">
+      <c r="F86">
         <v>-34.4</v>
       </c>
-      <c r="G86" s="8" t="n">
+      <c r="G86">
         <v>3.31</v>
       </c>
-      <c r="H86" s="8" t="n">
+      <c r="H86">
         <v>21.12</v>
       </c>
-      <c r="I86" s="8" t="n">
+      <c r="I86">
         <v>1.41</v>
       </c>
-      <c r="J86" s="8" t="n">
+      <c r="J86">
         <v>0.17</v>
       </c>
-      <c r="K86" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" s="8" t="n">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
         <v>1.58</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="9">
-      <c r="A87" s="13" t="n"/>
-      <c r="B87" s="13" t="n"/>
-      <c r="C87" s="12" t="n">
+    <row r="87" spans="3:12">
+      <c r="C87" s="2">
         <v>43460</v>
       </c>
-      <c r="D87" s="8" t="n">
+      <c r="D87">
         <v>25.66</v>
       </c>
-      <c r="E87" s="8" t="n">
+      <c r="E87">
         <v>28.64</v>
       </c>
-      <c r="F87" s="8" t="n">
+      <c r="F87">
         <v>-60</v>
       </c>
-      <c r="G87" s="8" t="n">
+      <c r="G87">
         <v>2.09</v>
       </c>
-      <c r="H87" s="8" t="n">
+      <c r="H87">
         <v>60</v>
       </c>
-      <c r="I87" s="8" t="n">
+      <c r="I87">
         <v>0.59</v>
       </c>
-      <c r="J87" s="8" t="n">
+      <c r="J87">
         <v>0.3</v>
       </c>
-      <c r="K87" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" s="8" t="n">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
         <v>0.89</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="9">
-      <c r="A88" s="13" t="n"/>
-      <c r="B88" s="13" t="n"/>
-      <c r="C88" s="12" t="n">
+    <row r="88" spans="3:12">
+      <c r="C88" s="2">
         <v>43461</v>
       </c>
-      <c r="D88" s="8" t="n">
+      <c r="D88">
         <v>28.64</v>
       </c>
-      <c r="E88" s="8" t="n">
+      <c r="E88">
         <v>62.5</v>
       </c>
-      <c r="F88" s="8" t="n">
+      <c r="F88">
         <v>-20</v>
       </c>
-      <c r="G88" s="8" t="n">
+      <c r="G88">
         <v>20.04</v>
       </c>
-      <c r="H88" s="8" t="n">
+      <c r="H88">
         <v>20</v>
       </c>
-      <c r="I88" s="8" t="n">
+      <c r="I88">
         <v>13.71</v>
       </c>
-      <c r="J88" s="8" t="n">
+      <c r="J88">
         <v>0.09</v>
       </c>
-      <c r="K88" s="8" t="n">
+      <c r="K88">
         <v>0.02</v>
       </c>
-      <c r="L88" s="8" t="n">
+      <c r="L88">
         <v>13.82</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="9">
-      <c r="A89" s="13" t="n"/>
-      <c r="B89" s="13" t="n"/>
-      <c r="C89" s="12" t="n">
+    <row r="89" spans="3:12">
+      <c r="C89" s="2">
         <v>43462</v>
       </c>
-      <c r="D89" s="8" t="n">
+      <c r="D89">
         <v>62.5</v>
       </c>
-      <c r="E89" s="8" t="n">
+      <c r="E89">
         <v>46.37</v>
       </c>
-      <c r="F89" s="8" t="n">
+      <c r="F89">
         <v>-132.45</v>
       </c>
-      <c r="G89" s="8" t="n">
+      <c r="G89">
         <v>12.31</v>
       </c>
-      <c r="H89" s="8" t="n">
+      <c r="H89">
         <v>88.37</v>
       </c>
-      <c r="I89" s="8" t="n">
+      <c r="I89">
         <v>14.59</v>
       </c>
-      <c r="J89" s="8" t="n">
+      <c r="J89">
         <v>1.05</v>
       </c>
-      <c r="K89" s="8" t="n">
+      <c r="K89">
         <v>0.01</v>
       </c>
-      <c r="L89" s="8" t="n">
+      <c r="L89">
         <v>15.64</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="9">
-      <c r="A90" s="13" t="n"/>
-      <c r="B90" s="13" t="n"/>
-      <c r="C90" s="12" t="n">
+    <row r="90" spans="3:12">
+      <c r="C90" s="2">
         <v>43463</v>
       </c>
-      <c r="D90" s="8" t="n">
+      <c r="D90">
         <v>46.37</v>
       </c>
-      <c r="E90" s="8" t="n">
+      <c r="E90">
         <v>20.09</v>
       </c>
-      <c r="F90" s="8" t="n">
+      <c r="F90">
         <v>-198.49</v>
       </c>
-      <c r="G90" s="8" t="n">
+      <c r="G90">
         <v>0.51</v>
       </c>
-      <c r="H90" s="8" t="n">
+      <c r="H90">
         <v>168.93</v>
       </c>
-      <c r="I90" s="8" t="n">
+      <c r="I90">
         <v>0.18</v>
       </c>
-      <c r="J90" s="8" t="n">
+      <c r="J90">
         <v>2.59</v>
       </c>
-      <c r="K90" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="8" t="n">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
         <v>2.77</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="9">
-      <c r="A91" s="13" t="n"/>
-      <c r="B91" s="13" t="n"/>
-      <c r="C91" s="12" t="n">
+    <row r="91" spans="3:12">
+      <c r="C91" s="2">
         <v>43464</v>
       </c>
-      <c r="D91" s="8" t="n">
+      <c r="D91">
         <v>20.09</v>
       </c>
-      <c r="E91" s="8" t="n">
+      <c r="E91">
         <v>73.83</v>
       </c>
-      <c r="F91" s="8" t="n">
+      <c r="F91">
         <v>-120</v>
       </c>
-      <c r="G91" s="8" t="n">
+      <c r="G91">
         <v>22.95</v>
       </c>
-      <c r="H91" s="8" t="n">
+      <c r="H91">
         <v>123.25</v>
       </c>
-      <c r="I91" s="8" t="n">
+      <c r="I91">
         <v>24.99</v>
       </c>
-      <c r="J91" s="8" t="n">
+      <c r="J91">
         <v>2.56</v>
       </c>
-      <c r="K91" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" s="8" t="n">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
         <v>27.55</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="9">
-      <c r="A92" s="14" t="n"/>
-      <c r="B92" s="14" t="n"/>
-      <c r="C92" s="12" t="n">
+    <row r="92" spans="3:12">
+      <c r="C92" s="2">
         <v>43465</v>
       </c>
-      <c r="D92" s="8" t="n">
+      <c r="D92">
         <v>73.83</v>
       </c>
-      <c r="E92" s="8" t="n">
+      <c r="E92">
         <v>64.22</v>
       </c>
-      <c r="F92" s="8" t="n">
+      <c r="F92">
         <v>-54.43</v>
       </c>
-      <c r="G92" s="8" t="n">
+      <c r="G92">
         <v>24.11</v>
       </c>
-      <c r="H92" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" s="8" t="n">
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>20.72</v>
       </c>
-      <c r="J92" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="8" t="n">
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
         <v>20.72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A92"/>
-    <mergeCell ref="B2:B92"/>
-  </mergeCells>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M2" activeCellId="0" pane="topLeft" sqref="M2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="12.71"/>
-    <col customWidth="1" max="3" min="2" style="6" width="9.130000000000001"/>
-    <col customWidth="1" max="4" min="4" style="8" width="16.29"/>
-    <col customWidth="1" max="5" min="5" style="8" width="10.29"/>
-    <col customWidth="1" max="6" min="6" style="8" width="16.29"/>
-    <col customWidth="1" max="7" min="7" style="8" width="21.14"/>
-    <col customWidth="1" max="8" min="8" style="8" width="11.57"/>
-    <col customWidth="1" max="9" min="9" style="8" width="16.29"/>
-    <col customWidth="1" max="10" min="10" style="8" width="34.29"/>
-    <col customWidth="1" max="12" min="11" style="8" width="18.71"/>
-    <col customWidth="1" max="1023" min="13" style="6" width="8.67"/>
-    <col customWidth="1" max="1025" min="1024" style="6" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Plattform</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Währung</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Monat</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>Startguthaben</t>
-        </is>
-      </c>
-      <c r="E1" s="10" t="inlineStr">
-        <is>
-          <t>Endsaldo</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Investitionen</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Tilgungszahlungen</t>
-        </is>
-      </c>
-      <c r="H1" s="10" t="inlineStr">
-        <is>
-          <t>Rückkäufe</t>
-        </is>
-      </c>
-      <c r="I1" s="10" t="inlineStr">
-        <is>
-          <t>Zinszahlungen</t>
-        </is>
-      </c>
-      <c r="J1" s="10" t="inlineStr">
-        <is>
-          <t>Zinszahlungen aus Rückkäufen</t>
-        </is>
-      </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>Verzugsgebühren</t>
-        </is>
-      </c>
-      <c r="L1" s="10" t="inlineStr">
-        <is>
-          <t>Gesamteinnahmen</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="9">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Mintos</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>2018-08</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
         <v>130.29</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2">
         <v>130.29</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="9">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>2018-09</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>130.29</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3">
         <v>110.5</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3">
         <v>-2085.7</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3">
         <v>203.4</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3">
         <v>1730.27</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3">
         <v>109.12</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3">
         <v>22.81</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3">
         <v>0.3</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3">
         <v>132.23</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="9">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>2018-10</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n">
+    <row r="4" spans="1:12">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>110.5</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4">
         <v>110.5</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="9">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>2018-11</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>110.5</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5">
         <v>110.19</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5">
         <v>-3445.12</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5">
         <v>186.96</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5">
         <v>3103.95</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5">
         <v>128.56</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5">
         <v>25.16</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5">
         <v>0.18</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5">
         <v>153.9</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="9">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>2018-12</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="n">
+    <row r="6" spans="1:12">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>110.19</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6">
         <v>64.22</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6">
         <v>-2851.35</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6">
         <v>283.05</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6">
         <v>2369.27</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6">
         <v>127.68</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6">
         <v>25.26</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6">
         <v>0.12</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6">
         <v>153.07</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="9">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="n">
+    <row r="7" spans="1:12">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>64.22</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7">
         <v>64.22</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="n">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-  </mergeCells>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="12.71"/>
-    <col customWidth="1" max="2" min="2" style="6" width="9.130000000000001"/>
-    <col customWidth="1" max="3" min="3" style="8" width="16.29"/>
-    <col customWidth="1" max="4" min="4" style="8" width="10.29"/>
-    <col customWidth="1" max="5" min="5" style="8" width="16.29"/>
-    <col customWidth="1" max="6" min="6" style="8" width="21.14"/>
-    <col customWidth="1" max="7" min="7" style="8" width="11.57"/>
-    <col customWidth="1" max="8" min="8" style="8" width="16.29"/>
-    <col customWidth="1" max="9" min="9" style="8" width="34.29"/>
-    <col customWidth="1" max="11" min="10" style="8" width="18.71"/>
-    <col customWidth="1" max="1023" min="12" style="6" width="8.67"/>
-    <col customWidth="1" max="1025" min="1024" style="6" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Plattform</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Währung</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Startguthaben</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>Endsaldo</t>
-        </is>
-      </c>
-      <c r="E1" s="10" t="inlineStr">
-        <is>
-          <t>Investitionen</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Tilgungszahlungen</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Rückkäufe</t>
-        </is>
-      </c>
-      <c r="H1" s="10" t="inlineStr">
-        <is>
-          <t>Zinszahlungen</t>
-        </is>
-      </c>
-      <c r="I1" s="10" t="inlineStr">
-        <is>
-          <t>Zinszahlungen aus Rückkäufen</t>
-        </is>
-      </c>
-      <c r="J1" s="10" t="inlineStr">
-        <is>
-          <t>Verzugsgebühren</t>
-        </is>
-      </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>Gesamteinnahmen</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="9">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Mintos</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>130.29</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2">
         <v>64.22</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2">
         <v>-8382.17</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2">
         <v>673.42</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2">
         <v>7203.49</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2">
         <v>365.36</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2">
         <v>73.23</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2">
         <v>0.61</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2">
         <v>439.2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="9">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="8" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
         <v>130.29</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3">
         <v>64.22</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3">
         <v>-8382.17</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3">
         <v>673.42</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3">
         <v>7203.49</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3">
         <v>365.36</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3">
         <v>73.23</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3">
         <v>0.61</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3">
         <v>439.2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>